--- a/Corso Excel/Lezione 05 Funzioni SOMMA, MEDIA, MIN e MAX.xlsx
+++ b/Corso Excel/Lezione 05 Funzioni SOMMA, MEDIA, MIN e MAX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3FC82B-1A01-4399-996C-0E66CC2EB059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_5C5755BF84DCCEC36C3E1A399931F45B2A7E2811" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B7B406-1E4B-46EA-8556-5090F13B64F1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiegazione" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B10" ca="1" si="0">RANDBETWEEN(0,50)</f>
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1463,11 +1463,11 @@
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" cm="1">
         <f t="array" aca="1" ref="C5:C10" ca="1">_xlfn.RANDARRAY(6,1,1.5,6,FALSE)</f>
-        <v>1.9915380817875716</v>
+        <v>2.2245067648041816</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1"/>
-        <v>5.670992524044463</v>
+        <v>3.7586295838775401</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C7" s="6">
         <f ca="1"/>
-        <v>3.6359601112829649</v>
+        <v>4.3532474363300748</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1502,11 +1502,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
         <f ca="1"/>
-        <v>3.3767087077678033</v>
+        <v>5.7958046591827816</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1515,11 +1515,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6">
         <f ca="1"/>
-        <v>2.8751700347352225</v>
+        <v>3.3969166536721787</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
         <f ca="1"/>
-        <v>2.9474101776966544</v>
+        <v>3.8764608475289917</v>
       </c>
     </row>
     <row r="12" spans="1:4">
